--- a/radix_calcs.xlsx
+++ b/radix_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaronLee\Documents\GitHub\pubsub-geo-filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4984F4F-4E63-40F2-97C3-E96244698DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD244B-4883-47E0-A3C2-20348E73697D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2314,7 +2314,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="D11" sqref="D11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -4373,12 +4373,12 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="39">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>34</v>
@@ -4503,43 +4503,43 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:K13" si="1">(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>3072</v>
+        <v>899999.99999999988</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>15360</v>
+        <v>9900000</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="1"/>
-        <v>64512</v>
+        <v>99899999.999999985</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>261120</v>
+        <v>999899999.99999988</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>1047552</v>
+        <v>9999900000</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>4193280</v>
+        <v>99999899999.999985</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>16776192</v>
+        <v>999999899999.99988</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="1"/>
-        <v>67107840</v>
+        <v>9999999900000</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="1"/>
-        <v>268434432</v>
+        <v>99999999899999.984</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="1"/>
-        <v>1073740800</v>
+        <v>999999999899999.88</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="P4" s="31">
         <f t="shared" ref="P4:P23" si="2">1/(RADIX^A4)</f>
-        <v>1024</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="Q4" s="31"/>
     </row>
@@ -4561,47 +4561,47 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>90000</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>3840</v>
+        <v>990000</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>16128</v>
+        <v>9990000</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>65280</v>
+        <v>99990000</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>261888</v>
+        <v>999990000</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>1048320</v>
+        <v>9999990000</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="1"/>
-        <v>4194048</v>
+        <v>99999990000</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="1"/>
-        <v>16776960</v>
+        <v>999999990000</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>67108608</v>
+        <v>9999999990000</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>268435200</v>
+        <v>99999999990000</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" ref="L5:L22" si="3">(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1073741568</v>
+        <v>999999999990000</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="P5" s="31">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>10000</v>
       </c>
       <c r="Q5" s="31"/>
     </row>
@@ -4622,51 +4622,51 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>9000</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>99000</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>4032</v>
+        <v>999000</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>16320</v>
+        <v>9999000</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>65472</v>
+        <v>99999000</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>262080</v>
+        <v>999999000</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>1048512</v>
+        <v>9999999000</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="1"/>
-        <v>4194240</v>
+        <v>99999999000</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
-        <v>16777152</v>
+        <v>999999999000</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>67108800</v>
+        <v>9999999999000</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="3"/>
-        <v>268435392</v>
+        <v>99999999999000</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6:M23" si="4">(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1073741760</v>
+        <v>999999999999000</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="P6" s="31">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>1000</v>
       </c>
       <c r="Q6" s="31"/>
     </row>
@@ -4686,55 +4686,55 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>900</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>9900</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>1008</v>
+        <v>99900</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>4080</v>
+        <v>999900</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>16368</v>
+        <v>9999900</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>65520</v>
+        <v>99999900</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="1"/>
-        <v>262128</v>
+        <v>999999900</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>1048560</v>
+        <v>9999999900</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>4194288</v>
+        <v>99999999900</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>16777200</v>
+        <v>999999999900</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="3"/>
-        <v>67108848</v>
+        <v>9999999999900</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="4"/>
-        <v>268435440</v>
+        <v>99999999999900</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ref="N7:N23" si="6">(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1073741808</v>
+        <v>999999999999900</v>
       </c>
       <c r="O7">
         <f t="shared" ref="O7:O16" si="7">ROW()-9</f>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="P7" s="31">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="31"/>
     </row>
@@ -4753,55 +4753,55 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>9990</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>1020</v>
+        <v>99990</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>4092</v>
+        <v>999990</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>16380</v>
+        <v>9999990</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>65532</v>
+        <v>99999990</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="1"/>
-        <v>262140</v>
+        <v>999999990</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
-        <v>1048572</v>
+        <v>9999999990</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>4194300</v>
+        <v>99999999990</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="3"/>
-        <v>16777212</v>
+        <v>999999999990</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="4"/>
-        <v>67108860</v>
+        <v>9999999999990</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="6"/>
-        <v>268435452</v>
+        <v>99999999999990</v>
       </c>
       <c r="O8">
         <f t="shared" si="7"/>
@@ -4809,11 +4809,11 @@
       </c>
       <c r="P8" s="31">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="34">
         <f t="shared" ref="Q8:Q19" si="8">111320*P8</f>
-        <v>445280</v>
+        <v>1113200</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -4823,55 +4823,55 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>999</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>9999</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>1023</v>
+        <v>99999</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>4095</v>
+        <v>999999</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>16383</v>
+        <v>9999999</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>65535</v>
+        <v>99999999</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
-        <v>262143</v>
+        <v>999999999</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>1048575</v>
+        <v>9999999999</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="3"/>
-        <v>4194303</v>
+        <v>99999999999</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="4"/>
-        <v>16777215</v>
+        <v>999999999999</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="6"/>
-        <v>67108863</v>
+        <v>9999999999999</v>
       </c>
       <c r="O9">
         <f t="shared" si="7"/>
@@ -4893,55 +4893,55 @@
       </c>
       <c r="B10" s="27">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="C10" s="27">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>9.9</v>
       </c>
       <c r="D10" s="27">
         <f t="shared" si="1"/>
-        <v>15.75</v>
+        <v>99.9</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>63.75</v>
+        <v>999.9</v>
       </c>
       <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v>255.75</v>
+        <v>9999.9</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>1023.75</v>
+        <v>99999.9</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>4095.75</v>
+        <v>999999.9</v>
       </c>
       <c r="I10" s="27">
         <f t="shared" si="1"/>
-        <v>16383.75</v>
+        <v>9999999.9000000004</v>
       </c>
       <c r="J10" s="27">
         <f t="shared" si="1"/>
-        <v>65535.75</v>
+        <v>99999999.900000006</v>
       </c>
       <c r="K10" s="27">
         <f t="shared" si="1"/>
-        <v>262143.75</v>
+        <v>999999999.89999998</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="3"/>
-        <v>1048575.75</v>
+        <v>9999999999.8999996</v>
       </c>
       <c r="M10" s="27">
         <f t="shared" si="4"/>
-        <v>4194303.75</v>
+        <v>99999999999.899994</v>
       </c>
       <c r="N10" s="27">
         <f t="shared" si="6"/>
-        <v>16777215.75</v>
+        <v>999999999999.90002</v>
       </c>
       <c r="O10">
         <f t="shared" si="7"/>
@@ -4949,11 +4949,11 @@
       </c>
       <c r="P10" s="29">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" s="34">
         <f t="shared" si="8"/>
-        <v>27830</v>
+        <v>11132</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -4963,55 +4963,55 @@
       </c>
       <c r="B11" s="27">
         <f t="shared" si="1"/>
-        <v>0.1875</v>
+        <v>0.09</v>
       </c>
       <c r="C11" s="27">
         <f t="shared" si="1"/>
-        <v>0.9375</v>
+        <v>0.99</v>
       </c>
       <c r="D11" s="27">
         <f t="shared" si="1"/>
-        <v>3.9375</v>
+        <v>9.99</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>15.9375</v>
+        <v>99.99</v>
       </c>
       <c r="F11" s="27">
         <f t="shared" si="1"/>
-        <v>63.9375</v>
+        <v>999.99</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>255.9375</v>
+        <v>9999.99</v>
       </c>
       <c r="H11" s="27">
         <f t="shared" si="1"/>
-        <v>1023.9375</v>
+        <v>99999.99</v>
       </c>
       <c r="I11" s="27">
         <f t="shared" si="1"/>
-        <v>4095.9375</v>
+        <v>999999.99</v>
       </c>
       <c r="J11" s="27">
         <f t="shared" si="1"/>
-        <v>16383.9375</v>
+        <v>9999999.9900000002</v>
       </c>
       <c r="K11" s="27">
         <f t="shared" si="1"/>
-        <v>65535.9375</v>
+        <v>99999999.989999995</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="3"/>
-        <v>262143.9375</v>
+        <v>999999999.99000001</v>
       </c>
       <c r="M11" s="27">
         <f t="shared" si="4"/>
-        <v>1048575.9375</v>
+        <v>9999999999.9899998</v>
       </c>
       <c r="N11" s="27">
         <f t="shared" si="6"/>
-        <v>4194303.9375</v>
+        <v>99999999999.990005</v>
       </c>
       <c r="O11">
         <f t="shared" si="7"/>
@@ -5019,11 +5019,11 @@
       </c>
       <c r="P11" s="29">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q11" s="34">
         <f t="shared" si="8"/>
-        <v>6957.5</v>
+        <v>1113.2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -5033,55 +5033,55 @@
       </c>
       <c r="B12" s="27">
         <f t="shared" si="1"/>
-        <v>4.6875E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C12" s="27">
         <f t="shared" si="1"/>
-        <v>0.234375</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D12" s="27">
         <f t="shared" si="1"/>
-        <v>0.984375</v>
+        <v>0.999</v>
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>3.984375</v>
+        <v>9.9990000000000006</v>
       </c>
       <c r="F12" s="27">
         <f t="shared" si="1"/>
-        <v>15.984375</v>
+        <v>99.998999999999995</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" si="1"/>
-        <v>63.984375</v>
+        <v>999.99900000000002</v>
       </c>
       <c r="H12" s="27">
         <f t="shared" si="1"/>
-        <v>255.984375</v>
+        <v>9999.9989999999998</v>
       </c>
       <c r="I12" s="27">
         <f t="shared" si="1"/>
-        <v>1023.984375</v>
+        <v>99999.998999999996</v>
       </c>
       <c r="J12" s="27">
         <f t="shared" si="1"/>
-        <v>4095.984375</v>
+        <v>999999.99899999995</v>
       </c>
       <c r="K12" s="27">
         <f t="shared" si="1"/>
-        <v>16383.984375</v>
+        <v>9999999.9989999998</v>
       </c>
       <c r="L12" s="27">
         <f t="shared" si="3"/>
-        <v>65535.984375</v>
+        <v>99999999.998999998</v>
       </c>
       <c r="M12" s="27">
         <f t="shared" si="4"/>
-        <v>262143.984375</v>
+        <v>999999999.99899995</v>
       </c>
       <c r="N12" s="27">
         <f t="shared" si="6"/>
-        <v>1048575.984375</v>
+        <v>9999999999.9990005</v>
       </c>
       <c r="O12">
         <f t="shared" si="7"/>
@@ -5089,11 +5089,11 @@
       </c>
       <c r="P12" s="30">
         <f t="shared" si="2"/>
-        <v>1.5625E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="Q12" s="34">
         <f t="shared" si="8"/>
-        <v>1739.375</v>
+        <v>111.32000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -5103,55 +5103,55 @@
       </c>
       <c r="B13" s="27">
         <f t="shared" si="1"/>
-        <v>1.171875E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="C13" s="27">
         <f t="shared" si="1"/>
-        <v>5.859375E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D13" s="27">
         <f t="shared" si="1"/>
-        <v>0.24609375</v>
+        <v>9.9900000000000003E-2</v>
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>0.99609375</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="F13" s="27">
         <f t="shared" si="1"/>
-        <v>3.99609375</v>
+        <v>9.9999000000000002</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" si="1"/>
-        <v>15.99609375</v>
+        <v>99.999899999999997</v>
       </c>
       <c r="H13" s="27">
         <f t="shared" si="1"/>
-        <v>63.99609375</v>
+        <v>999.99990000000003</v>
       </c>
       <c r="I13" s="27">
         <f t="shared" si="1"/>
-        <v>255.99609375</v>
+        <v>9999.9999000000007</v>
       </c>
       <c r="J13" s="27">
         <f t="shared" si="1"/>
-        <v>1023.99609375</v>
+        <v>99999.999899999995</v>
       </c>
       <c r="K13" s="27">
         <f t="shared" si="1"/>
-        <v>4095.99609375</v>
+        <v>999999.99990000005</v>
       </c>
       <c r="L13" s="27">
         <f t="shared" si="3"/>
-        <v>16383.99609375</v>
+        <v>9999999.9999000002</v>
       </c>
       <c r="M13" s="27">
         <f t="shared" si="4"/>
-        <v>65535.99609375</v>
+        <v>99999999.999899998</v>
       </c>
       <c r="N13" s="27">
         <f t="shared" si="6"/>
-        <v>262143.99609375</v>
+        <v>999999999.99989998</v>
       </c>
       <c r="O13">
         <f t="shared" si="7"/>
@@ -5159,11 +5159,11 @@
       </c>
       <c r="P13" s="30">
         <f t="shared" si="2"/>
-        <v>3.90625E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="Q13" s="34">
         <f t="shared" si="8"/>
-        <v>434.84375</v>
+        <v>11.132</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -5174,51 +5174,51 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27">
         <f t="shared" ref="C14:K14" si="9">(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1.46484375E-2</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="9"/>
-        <v>6.15234375E-2</v>
+        <v>9.9900000000000006E-3</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="9"/>
-        <v>0.2490234375</v>
+        <v>9.9989999999999996E-2</v>
       </c>
       <c r="F14" s="27">
         <f t="shared" si="9"/>
-        <v>0.9990234375</v>
+        <v>0.99999000000000005</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" si="9"/>
-        <v>3.9990234375</v>
+        <v>9.9999900000000004</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="9"/>
-        <v>15.9990234375</v>
+        <v>99.999989999999997</v>
       </c>
       <c r="I14" s="27">
         <f t="shared" si="9"/>
-        <v>63.9990234375</v>
+        <v>999.99999000000003</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" si="9"/>
-        <v>255.9990234375</v>
+        <v>9999.9999900000003</v>
       </c>
       <c r="K14" s="27">
         <f t="shared" si="9"/>
-        <v>1023.9990234375</v>
+        <v>99999.999989999997</v>
       </c>
       <c r="L14" s="27">
         <f t="shared" si="3"/>
-        <v>4095.9990234375</v>
+        <v>999999.99999000004</v>
       </c>
       <c r="M14" s="27">
         <f t="shared" si="4"/>
-        <v>16383.9990234375</v>
+        <v>9999999.9999899995</v>
       </c>
       <c r="N14" s="27">
         <f t="shared" si="6"/>
-        <v>65535.9990234375</v>
+        <v>99999999.999990001</v>
       </c>
       <c r="O14">
         <f t="shared" si="7"/>
@@ -5226,11 +5226,11 @@
       </c>
       <c r="P14" s="30">
         <f t="shared" si="2"/>
-        <v>9.765625E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q14" s="34">
         <f t="shared" si="8"/>
-        <v>108.7109375</v>
+        <v>1.1132000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -5242,47 +5242,47 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27">
         <f t="shared" ref="D15:K15" si="10">(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1.5380859375E-2</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="E15" s="27">
         <f t="shared" si="10"/>
-        <v>6.2255859375E-2</v>
+        <v>9.9989999999999992E-3</v>
       </c>
       <c r="F15" s="27">
         <f t="shared" si="10"/>
-        <v>0.249755859375</v>
+        <v>9.9999000000000005E-2</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" si="10"/>
-        <v>0.999755859375</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="10"/>
-        <v>3.999755859375</v>
+        <v>9.9999990000000007</v>
       </c>
       <c r="I15" s="27">
         <f t="shared" si="10"/>
-        <v>15.999755859375</v>
+        <v>99.999999000000003</v>
       </c>
       <c r="J15" s="27">
         <f t="shared" si="10"/>
-        <v>63.999755859375</v>
+        <v>999.999999</v>
       </c>
       <c r="K15" s="27">
         <f t="shared" si="10"/>
-        <v>255.999755859375</v>
+        <v>9999.9999989999997</v>
       </c>
       <c r="L15" s="27">
         <f t="shared" si="3"/>
-        <v>1023.999755859375</v>
+        <v>99999.999999000007</v>
       </c>
       <c r="M15" s="27">
         <f t="shared" si="4"/>
-        <v>4095.999755859375</v>
+        <v>999999.99999899999</v>
       </c>
       <c r="N15" s="27">
         <f t="shared" si="6"/>
-        <v>16383.999755859375</v>
+        <v>9999999.9999989998</v>
       </c>
       <c r="O15">
         <f t="shared" si="7"/>
@@ -5290,11 +5290,11 @@
       </c>
       <c r="P15" s="30">
         <f t="shared" si="2"/>
-        <v>2.44140625E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="Q15" s="37">
         <f t="shared" si="8"/>
-        <v>27.177734375</v>
+        <v>0.11131999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -5307,43 +5307,43 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27">
         <f t="shared" ref="E16:K16" si="11">(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1.556396484375E-2</v>
+        <v>9.9989999999999996E-4</v>
       </c>
       <c r="F16" s="27">
         <f t="shared" si="11"/>
-        <v>6.243896484375E-2</v>
+        <v>9.9999000000000008E-3</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" si="11"/>
-        <v>0.24993896484375</v>
+        <v>9.9999900000000003E-2</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="11"/>
-        <v>0.99993896484375</v>
+        <v>0.99999990000000005</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" si="11"/>
-        <v>3.99993896484375</v>
+        <v>9.9999999000000006</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="11"/>
-        <v>15.99993896484375</v>
+        <v>99.999999900000006</v>
       </c>
       <c r="K16" s="27">
         <f t="shared" si="11"/>
-        <v>63.99993896484375</v>
+        <v>999.99999990000003</v>
       </c>
       <c r="L16" s="27">
         <f t="shared" si="3"/>
-        <v>255.99993896484375</v>
+        <v>9999.9999998999992</v>
       </c>
       <c r="M16" s="27">
         <f t="shared" si="4"/>
-        <v>1023.9999389648438</v>
+        <v>99999.999999899999</v>
       </c>
       <c r="N16" s="27">
         <f t="shared" si="6"/>
-        <v>4095.9999389648438</v>
+        <v>999999.9999999</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
@@ -5351,11 +5351,11 @@
       </c>
       <c r="P16" s="30">
         <f t="shared" si="2"/>
-        <v>6.103515625E-5</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="Q16" s="34">
         <f t="shared" si="8"/>
-        <v>6.79443359375</v>
+        <v>1.1132E-2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,39 +5369,39 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27">
         <f t="shared" ref="F17:K17" si="13">(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1.56097412109375E-2</v>
+        <v>9.9999000000000008E-4</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" si="13"/>
-        <v>6.24847412109375E-2</v>
+        <v>9.9999900000000003E-3</v>
       </c>
       <c r="H17" s="27">
         <f t="shared" si="13"/>
-        <v>0.2499847412109375</v>
+        <v>9.9999989999999997E-2</v>
       </c>
       <c r="I17" s="27">
         <f t="shared" si="13"/>
-        <v>0.9999847412109375</v>
+        <v>0.99999998999999995</v>
       </c>
       <c r="J17" s="27">
         <f t="shared" si="13"/>
-        <v>3.9999847412109375</v>
+        <v>9.9999999899999992</v>
       </c>
       <c r="K17" s="27">
         <f t="shared" si="13"/>
-        <v>15.999984741210938</v>
+        <v>99.999999990000006</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="3"/>
-        <v>63.999984741210938</v>
+        <v>999.99999998999999</v>
       </c>
       <c r="M17" s="27">
         <f t="shared" si="4"/>
-        <v>255.99998474121094</v>
+        <v>9999.9999999899992</v>
       </c>
       <c r="N17" s="27">
         <f t="shared" si="6"/>
-        <v>1023.9999847412109</v>
+        <v>99999.999999990003</v>
       </c>
       <c r="O17">
         <f>ROW()-9</f>
@@ -5409,11 +5409,11 @@
       </c>
       <c r="P17" s="30">
         <f t="shared" si="2"/>
-        <v>1.52587890625E-5</v>
+        <v>1E-8</v>
       </c>
       <c r="Q17" s="34">
         <f t="shared" si="8"/>
-        <v>1.6986083984375</v>
+        <v>1.1132E-3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,35 +5428,35 @@
       <c r="F18" s="27"/>
       <c r="G18" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1.5621185302734375E-2</v>
+        <v>9.999989999999999E-4</v>
       </c>
       <c r="H18" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>6.2496185302734375E-2</v>
+        <v>9.9999990000000007E-3</v>
       </c>
       <c r="I18" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>0.24999618530273438</v>
+        <v>9.9999999000000006E-2</v>
       </c>
       <c r="J18" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>0.99999618530273438</v>
+        <v>0.99999999900000003</v>
       </c>
       <c r="K18" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>3.9999961853027344</v>
+        <v>9.9999999989999999</v>
       </c>
       <c r="L18" s="27">
         <f t="shared" si="3"/>
-        <v>15.999996185302734</v>
+        <v>99.999999998999996</v>
       </c>
       <c r="M18" s="27">
         <f t="shared" si="4"/>
-        <v>63.999996185302734</v>
+        <v>999.99999999900001</v>
       </c>
       <c r="N18" s="27">
         <f t="shared" si="6"/>
-        <v>255.99999618530273</v>
+        <v>9999.9999999989996</v>
       </c>
       <c r="O18">
         <f>ROW()-9</f>
@@ -5464,11 +5464,11 @@
       </c>
       <c r="P18" s="30">
         <f t="shared" si="2"/>
-        <v>3.814697265625E-6</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="Q18" s="34">
         <f t="shared" si="8"/>
-        <v>0.424652099609375</v>
+        <v>1.1132000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,31 +5484,31 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1.5624046325683594E-2</v>
+        <v>9.9999989999999999E-4</v>
       </c>
       <c r="I19" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>6.2499046325683594E-2</v>
+        <v>9.9999999000000006E-3</v>
       </c>
       <c r="J19" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>0.24999904632568359</v>
+        <v>9.9999999899999997E-2</v>
       </c>
       <c r="K19" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>0.99999904632568359</v>
+        <v>0.99999999989999999</v>
       </c>
       <c r="L19" s="27">
         <f t="shared" si="3"/>
-        <v>3.9999990463256836</v>
+        <v>9.9999999999</v>
       </c>
       <c r="M19" s="27">
         <f t="shared" si="4"/>
-        <v>15.999999046325684</v>
+        <v>99.999999999899998</v>
       </c>
       <c r="N19" s="27">
         <f t="shared" si="6"/>
-        <v>63.999999046325684</v>
+        <v>999.99999999989996</v>
       </c>
       <c r="O19">
         <f>ROW()-9</f>
@@ -5516,11 +5516,11 @@
       </c>
       <c r="P19" s="30">
         <f t="shared" si="2"/>
-        <v>9.5367431640625E-7</v>
+        <v>1E-10</v>
       </c>
       <c r="Q19" s="34">
         <f t="shared" si="8"/>
-        <v>0.10616302490234375</v>
+        <v>1.1132000000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5535,27 +5535,27 @@
       <c r="H20" s="26"/>
       <c r="I20" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>1.5624761581420898E-2</v>
+        <v>9.9999999000000006E-4</v>
       </c>
       <c r="J20" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>6.2499761581420898E-2</v>
+        <v>9.9999999899999994E-3</v>
       </c>
       <c r="K20" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>0.2499997615814209</v>
+        <v>9.9999999990000005E-2</v>
       </c>
       <c r="L20" s="27">
         <f t="shared" si="3"/>
-        <v>0.9999997615814209</v>
+        <v>0.99999999999</v>
       </c>
       <c r="M20" s="27">
         <f t="shared" si="4"/>
-        <v>3.9999997615814209</v>
+        <v>9.9999999999900009</v>
       </c>
       <c r="N20" s="27">
         <f t="shared" si="6"/>
-        <v>15.999999761581421</v>
+        <v>99.999999999989996</v>
       </c>
       <c r="O20">
         <f t="shared" ref="O20:O23" si="14">ROW()-9</f>
@@ -5563,11 +5563,11 @@
       </c>
       <c r="P20" s="30">
         <f t="shared" si="2"/>
-        <v>2.384185791015625E-7</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="Q20" s="34">
         <f t="shared" ref="Q20:Q23" si="15">111320*P20</f>
-        <v>2.6540756225585938E-2</v>
+        <v>1.1132E-6</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
@@ -5584,19 +5584,19 @@
       <c r="J21" s="27"/>
       <c r="K21" s="27">
         <f>(RADIX^(COLUMN()-1)-1)/RADIX^(ROW()-9)</f>
-        <v>6.2499940395355225E-2</v>
+        <v>9.9999999989999998E-3</v>
       </c>
       <c r="L21" s="27">
         <f t="shared" si="3"/>
-        <v>0.24999994039535522</v>
+        <v>9.9999999999E-2</v>
       </c>
       <c r="M21" s="27">
         <f t="shared" si="4"/>
-        <v>0.99999994039535522</v>
+        <v>0.99999999999900002</v>
       </c>
       <c r="N21" s="27">
         <f t="shared" si="6"/>
-        <v>3.9999999403953552</v>
+        <v>9.9999999999989999</v>
       </c>
       <c r="O21">
         <f t="shared" si="14"/>
@@ -5604,11 +5604,11 @@
       </c>
       <c r="P21" s="30">
         <f t="shared" si="2"/>
-        <v>5.9604644775390625E-8</v>
+        <v>9.9999999999999998E-13</v>
       </c>
       <c r="Q21" s="34">
         <f t="shared" si="15"/>
-        <v>6.6351890563964844E-3</v>
+        <v>1.1131999999999999E-7</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,15 +5626,15 @@
       <c r="K22" s="27"/>
       <c r="L22" s="27">
         <f t="shared" si="3"/>
-        <v>6.2499985098838806E-2</v>
+        <v>9.9999999999000003E-3</v>
       </c>
       <c r="M22" s="27">
         <f t="shared" si="4"/>
-        <v>0.24999998509883881</v>
+        <v>9.9999999999900002E-2</v>
       </c>
       <c r="N22" s="27">
         <f t="shared" si="6"/>
-        <v>0.99999998509883881</v>
+        <v>0.99999999999989997</v>
       </c>
       <c r="O22">
         <f t="shared" si="14"/>
@@ -5642,11 +5642,11 @@
       </c>
       <c r="P22" s="30">
         <f t="shared" si="2"/>
-        <v>1.4901161193847656E-8</v>
+        <v>1E-13</v>
       </c>
       <c r="Q22" s="34">
         <f t="shared" si="15"/>
-        <v>1.6587972640991211E-3</v>
+        <v>1.1132E-8</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,11 +5665,11 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27">
         <f t="shared" si="4"/>
-        <v>6.2499996274709702E-2</v>
+        <v>9.9999999999899995E-3</v>
       </c>
       <c r="N23" s="27">
         <f t="shared" si="6"/>
-        <v>0.2499999962747097</v>
+        <v>9.999999999999E-2</v>
       </c>
       <c r="O23">
         <f t="shared" si="14"/>
@@ -5677,11 +5677,11 @@
       </c>
       <c r="P23" s="30">
         <f t="shared" si="2"/>
-        <v>3.7252902984619141E-9</v>
+        <v>1E-14</v>
       </c>
       <c r="Q23" s="34">
         <f t="shared" si="15"/>
-        <v>4.1469931602478027E-4</v>
+        <v>1.1132E-9</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/radix_calcs.xlsx
+++ b/radix_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaronLee\Documents\GitHub\pubsub-geo-filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD244B-4883-47E0-A3C2-20348E73697D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E32B33-542B-483C-B4A0-ED83A67264F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Radix n" sheetId="12" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="13" r:id="rId5"/>
     <sheet name="Radix 2" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="base2">Sheet2!$H$4</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Base 2</t>
   </si>
@@ -168,6 +169,18 @@
   </si>
   <si>
     <t>Lon Width</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>-0</t>
   </si>
 </sst>
 </file>
@@ -395,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,6 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,20 +818,20 @@
       <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="14.6640625" customWidth="1"/>
+    <col min="3" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="11" width="10.33203125" customWidth="1"/>
-    <col min="17" max="21" width="10.109375" customWidth="1"/>
+    <col min="9" max="11" width="10.28515625" customWidth="1"/>
+    <col min="17" max="21" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -881,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -913,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -945,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -977,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1009,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1041,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1076,7 +1090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1108,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1152,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1203,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1248,7 +1262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1293,7 +1307,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1338,7 +1352,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1383,7 +1397,7 @@
         <v>1048575</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1428,7 +1442,7 @@
         <v>16777215</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1466,7 +1480,7 @@
       </c>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1501,7 +1515,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1533,7 +1547,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1566,7 +1580,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1598,7 +1612,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1630,7 +1644,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
@@ -1659,7 +1673,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
@@ -1688,7 +1702,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
@@ -1717,7 +1731,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
@@ -1746,7 +1760,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -1775,7 +1789,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
@@ -1804,7 +1818,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -1833,7 +1847,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1855,7 +1869,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1873,7 +1887,7 @@
         <v>2097151</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1891,7 +1905,7 @@
         <v>4194303</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="P34" s="6">
         <v>23</v>
       </c>
@@ -1900,7 +1914,7 @@
         <v>8388607</v>
       </c>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="P35" s="6">
         <v>24</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>16777215</v>
       </c>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="P36" s="6">
         <v>25</v>
       </c>
@@ -1928,17 +1942,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="12" width="10.33203125" customWidth="1"/>
+    <col min="8" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G4" s="6"/>
       <c r="H4" s="6">
         <v>2</v>
@@ -1956,7 +1970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G5" s="6">
         <v>1</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G6" s="6">
         <v>2</v>
       </c>
@@ -2006,7 +2020,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G7" s="6">
         <v>3</v>
       </c>
@@ -2031,7 +2045,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G8" s="6">
         <v>4</v>
       </c>
@@ -2056,7 +2070,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G9" s="6">
         <v>5</v>
       </c>
@@ -2081,7 +2095,7 @@
         <v>1048575</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G10" s="6">
         <v>6</v>
       </c>
@@ -2103,7 +2117,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G11" s="6">
         <v>7</v>
       </c>
@@ -2125,7 +2139,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G12" s="6">
         <v>8</v>
       </c>
@@ -2141,7 +2155,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G13" s="6">
         <v>9</v>
       </c>
@@ -2157,7 +2171,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G14" s="6">
         <v>10</v>
       </c>
@@ -2173,7 +2187,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G15" s="6">
         <v>11</v>
       </c>
@@ -2186,7 +2200,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="G16" s="6">
         <v>12</v>
       </c>
@@ -2199,7 +2213,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G17" s="6">
         <v>13</v>
       </c>
@@ -2212,7 +2226,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G18" s="6">
         <v>14</v>
       </c>
@@ -2225,7 +2239,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G19" s="6">
         <v>15</v>
       </c>
@@ -2238,7 +2252,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G20" s="6">
         <v>16</v>
       </c>
@@ -2251,7 +2265,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G21" s="6">
         <v>17</v>
       </c>
@@ -2264,7 +2278,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G22" s="6">
         <v>18</v>
       </c>
@@ -2277,7 +2291,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G23" s="6">
         <v>19</v>
       </c>
@@ -2290,7 +2304,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G24" s="6">
         <v>20</v>
       </c>
@@ -2317,27 +2331,27 @@
       <selection activeCell="D11" sqref="D11:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
@@ -2363,7 +2377,7 @@
       <c r="V1" s="43"/>
       <c r="W1" s="44"/>
     </row>
-    <row r="2" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
@@ -2456,7 +2470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <f>ROW()-1</f>
         <v>2</v>
@@ -2550,7 +2564,7 @@
         <v>4194303</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <f>ROW()-1</f>
         <v>3</v>
@@ -2634,7 +2648,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <f t="shared" ref="A5:A16" si="3">ROW()-1</f>
         <v>4</v>
@@ -2706,7 +2720,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2772,7 +2786,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2835,7 +2849,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2895,7 +2909,7 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2952,7 +2966,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3009,7 +3023,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3063,7 +3077,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3117,7 +3131,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3171,7 +3185,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3225,7 +3239,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3276,7 +3290,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3327,7 +3341,7 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <f>ROW()-1</f>
         <v>16</v>
@@ -3378,7 +3392,7 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <f>ROW()-1</f>
         <v>17</v>
@@ -3429,7 +3443,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <f t="shared" ref="A19:A28" si="5">ROW()-1</f>
         <v>18</v>
@@ -3482,7 +3496,7 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -3537,7 +3551,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -3589,7 +3603,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -3643,7 +3657,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -3691,7 +3705,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -3739,7 +3753,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -3789,7 +3803,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -3839,7 +3853,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -3889,7 +3903,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -3943,7 +3957,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <f>ROW()-1</f>
         <v>28</v>
@@ -3991,7 +4005,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <f>ROW()-1</f>
         <v>29</v>
@@ -4039,7 +4053,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <f t="shared" ref="A31" si="7">ROW()-1</f>
         <v>30</v>
@@ -4087,7 +4101,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <f>ROW()-1</f>
         <v>31</v>
@@ -4135,7 +4149,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <f>ROW()-1</f>
         <v>32</v>
@@ -4180,7 +4194,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <f t="shared" ref="A34:A35" si="9">ROW()-1</f>
         <v>33</v>
@@ -4225,7 +4239,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <f t="shared" si="9"/>
         <v>34</v>
@@ -4270,7 +4284,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <f>ROW()-1</f>
         <v>35</v>
@@ -4315,7 +4329,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <f>ROW()-1</f>
         <v>36</v>
@@ -4372,28 +4386,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AD6F14-5590-426C-A1BE-6A29CE76DA50}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
@@ -4410,7 +4424,7 @@
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="45" t="s">
         <v>35</v>
@@ -4432,7 +4446,7 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -4496,7 +4510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>ROW()-9</f>
         <v>-5</v>
@@ -4554,7 +4568,7 @@
       </c>
       <c r="Q4" s="31"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>ROW()-9</f>
         <v>-4</v>
@@ -4615,7 +4629,7 @@
       </c>
       <c r="Q5" s="31"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>ROW()-9</f>
         <v>-3</v>
@@ -4679,7 +4693,7 @@
       </c>
       <c r="Q6" s="31"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7:A16" si="5">ROW()-9</f>
         <v>-2</v>
@@ -4746,7 +4760,7 @@
       </c>
       <c r="Q7" s="31"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>-1</v>
@@ -4816,7 +4830,7 @@
         <v>1113200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4886,7 +4900,7 @@
         <v>111320</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -4956,7 +4970,7 @@
         <v>11132</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -5026,7 +5040,7 @@
         <v>1113.2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -5096,7 +5110,7 @@
         <v>111.32000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -5166,7 +5180,7 @@
         <v>11.132</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5233,7 +5247,7 @@
         <v>1.1132000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -5297,7 +5311,7 @@
         <v>0.11131999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -5358,7 +5372,7 @@
         <v>1.1132E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ref="A17:A23" si="12">ROW()-9</f>
         <v>8</v>
@@ -5416,7 +5430,7 @@
         <v>1.1132E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="12"/>
         <v>9</v>
@@ -5471,7 +5485,7 @@
         <v>1.1132000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="12"/>
         <v>10</v>
@@ -5523,7 +5537,7 @@
         <v>1.1132000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="12"/>
         <v>11</v>
@@ -5570,7 +5584,7 @@
         <v>1.1132E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="12"/>
         <v>12</v>
@@ -5611,7 +5625,7 @@
         <v>1.1131999999999999E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -5649,7 +5663,7 @@
         <v>1.1132E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="12"/>
         <v>14</v>
@@ -5684,7 +5698,7 @@
         <v>1.1132E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -5700,7 +5714,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
@@ -5737,7 +5751,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>2</v>
       </c>
@@ -5772,7 +5786,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>3</v>
       </c>
@@ -5807,7 +5821,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C28" s="41">
         <v>4</v>
       </c>
@@ -5844,7 +5858,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>5</v>
       </c>
@@ -5879,7 +5893,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>8</v>
       </c>
@@ -5916,7 +5930,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C31" s="41">
         <v>10</v>
       </c>
@@ -5951,7 +5965,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>12</v>
       </c>
@@ -5980,7 +5994,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4">
         <v>16</v>
@@ -6008,7 +6022,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4">
         <v>20</v>
@@ -6036,7 +6050,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4">
         <v>32</v>
@@ -6064,10 +6078,10 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
   </sheetData>
@@ -6087,16 +6101,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -6104,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -6112,7 +6126,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6121,7 +6135,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -6133,7 +6147,7 @@
         <v>4.491559909773545E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -6141,7 +6155,7 @@
         <v>111319.9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="46" t="s">
         <v>30</v>
       </c>
@@ -6155,7 +6169,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -6178,7 +6192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -6219,7 +6233,7 @@
         <v>54.355419921874997</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6256,7 +6270,7 @@
         <v>50.900731595793317</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -6293,7 +6307,7 @@
         <v>108.71083984374999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -6330,7 +6344,7 @@
         <v>85.894984567901218</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -6367,7 +6381,7 @@
         <v>217.42167968749999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -6404,7 +6418,7 @@
         <v>111.31989999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -6441,7 +6455,7 @@
         <v>64.421238425925921</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -6478,7 +6492,7 @@
         <v>434.84335937499998</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -6533,21 +6547,21 @@
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
@@ -6559,7 +6573,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
     </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="45" t="s">
         <v>16</v>
@@ -6589,7 +6603,7 @@
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
     </row>
-    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -6685,7 +6699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>ROW()-14</f>
         <v>-10</v>
@@ -6763,7 +6777,7 @@
       </c>
       <c r="Y4" s="31"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A32" si="3">ROW()-14</f>
         <v>-9</v>
@@ -6844,7 +6858,7 @@
       </c>
       <c r="Y5" s="31"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>-8</v>
@@ -6928,7 +6942,7 @@
       </c>
       <c r="Y6" s="31"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>-7</v>
@@ -7015,7 +7029,7 @@
       </c>
       <c r="Y7" s="31"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>-6</v>
@@ -7105,7 +7119,7 @@
       </c>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>-5</v>
@@ -7201,7 +7215,7 @@
         <v>3562240</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>-4</v>
@@ -7300,7 +7314,7 @@
         <v>1781120</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>-3</v>
@@ -7402,7 +7416,7 @@
         <v>890560</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>-2</v>
@@ -7504,7 +7518,7 @@
         <v>445280</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>-1</v>
@@ -7606,7 +7620,7 @@
         <v>222640</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7708,7 +7722,7 @@
         <v>111320</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -7810,7 +7824,7 @@
         <v>55660</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -7912,7 +7926,7 @@
         <v>27830</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -8014,7 +8028,7 @@
         <v>13915</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -8116,7 +8130,7 @@
         <v>6957.5</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -8215,7 +8229,7 @@
         <v>3478.75</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -8311,7 +8325,7 @@
         <v>1739.375</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -8404,7 +8418,7 @@
         <v>869.6875</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -8494,7 +8508,7 @@
         <v>434.84375</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -8581,7 +8595,7 @@
         <v>217.421875</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -8665,7 +8679,7 @@
         <v>108.7109375</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -8746,7 +8760,7 @@
         <v>54.35546875</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -8824,7 +8838,7 @@
         <v>27.177734375</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -8897,7 +8911,7 @@
         <v>13.5888671875</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -8967,7 +8981,7 @@
         <v>6.79443359375</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -9034,7 +9048,7 @@
         <v>3.397216796875</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -9098,7 +9112,7 @@
         <v>1.6986083984375</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -9159,7 +9173,7 @@
         <v>0.84930419921875</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -9219,7 +9233,7 @@
         <v>0.424652099609375</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -9245,7 +9259,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -9278,4 +9292,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655DEB4C-1939-4E55-A6EE-FAFC125BAD3D}">
+  <dimension ref="A3:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:H5" si="0">B5*10</f>
+        <v>1100</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>11000000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>110000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:H6" si="1">B6*8</f>
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4608</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>36864</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>294912</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2359296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:H7" si="2">B7*4</f>
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1280</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>5120</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:H8" si="3">B8*2</f>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>-9</v>
+      </c>
+      <c r="D11">
+        <v>-100</v>
+      </c>
+      <c r="E11">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>-8</v>
+      </c>
+      <c r="D12">
+        <v>-64</v>
+      </c>
+      <c r="E12">
+        <v>-512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>999</v>
+      </c>
+      <c r="E17">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/radix_calcs.xlsx
+++ b/radix_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaronLee\Documents\GitHub\pubsub-geo-filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E32B33-542B-483C-B4A0-ED83A67264F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C9A90-B92E-4E5E-93E5-8CCC055BA4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Base 2</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>-0</t>
   </si>
 </sst>
 </file>
@@ -469,6 +466,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,7 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2352,30 +2349,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -4426,21 +4423,21 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
       <c r="O2" s="26"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="26"/>
@@ -6156,18 +6153,18 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -6575,29 +6572,29 @@
     </row>
     <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
       <c r="W2" s="26"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="26"/>
@@ -9298,8 +9295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655DEB4C-1939-4E55-A6EE-FAFC125BAD3D}">
   <dimension ref="A3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9477,11 +9474,11 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>41</v>
+      <c r="B11" s="42">
+        <v>-1</v>
       </c>
       <c r="C11">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="D11">
         <v>-100</v>
@@ -9494,8 +9491,8 @@
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>41</v>
+      <c r="B12" s="42">
+        <v>-1</v>
       </c>
       <c r="C12">
         <v>-8</v>
@@ -9511,16 +9508,40 @@
       <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>41</v>
+      <c r="B13" s="42">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-4</v>
+      </c>
+      <c r="D13">
+        <v>-16</v>
+      </c>
+      <c r="E13">
+        <v>-64</v>
+      </c>
+      <c r="F13">
+        <v>-256</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>41</v>
+      <c r="B14" s="42">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-2</v>
+      </c>
+      <c r="D14">
+        <v>-4</v>
+      </c>
+      <c r="E14">
+        <v>-8</v>
+      </c>
+      <c r="F14">
+        <v>-16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9533,31 +9554,67 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E17">
-        <v>9999</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>8</v>
       </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>512</v>
+      </c>
+      <c r="E18">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>64</v>
+      </c>
+      <c r="E19">
+        <v>256</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/radix_calcs.xlsx
+++ b/radix_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaronLee\Documents\GitHub\pubsub-geo-filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C9A90-B92E-4E5E-93E5-8CCC055BA4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882CCD05-31B7-4897-87E3-81D0D620C369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9293,10 +9293,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655DEB4C-1939-4E55-A6EE-FAFC125BAD3D}">
-  <dimension ref="A3:H20"/>
+  <dimension ref="A3:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9306,12 +9306,12 @@
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>110000000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>8</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>2359296</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>20480</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:H8" si="3">B8*2</f>
+        <f t="shared" ref="C8:J8" si="3">B8*2</f>
         <v>6</v>
       </c>
       <c r="D8">
@@ -9464,13 +9464,21 @@
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -9487,7 +9495,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -9504,7 +9512,7 @@
         <v>-512</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -9518,13 +9526,27 @@
         <v>-16</v>
       </c>
       <c r="E13">
+        <f>D13*4</f>
         <v>-64</v>
       </c>
       <c r="F13">
+        <f>E13*4</f>
         <v>-256</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f>F13*4</f>
+        <v>-1024</v>
+      </c>
+      <c r="H13">
+        <f>G13*4</f>
+        <v>-4096</v>
+      </c>
+      <c r="I13">
+        <f>H13*4</f>
+        <v>-16384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -9538,18 +9560,36 @@
         <v>-4</v>
       </c>
       <c r="E14">
+        <f>D14*2</f>
         <v>-8</v>
       </c>
       <c r="F14">
+        <f>E14*2</f>
         <v>-16</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f>F14*2</f>
+        <v>-32</v>
+      </c>
+      <c r="H14">
+        <f>G14*2</f>
+        <v>-64</v>
+      </c>
+      <c r="I14">
+        <f>H14*2</f>
+        <v>-128</v>
+      </c>
+      <c r="J14">
+        <f>I14*2</f>
+        <v>-256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -9566,7 +9606,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -9583,7 +9623,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -9594,13 +9634,31 @@
         <v>16</v>
       </c>
       <c r="D19">
+        <f>C19*4</f>
         <v>64</v>
       </c>
       <c r="E19">
+        <f>D19*4</f>
         <v>256</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f>E19*4</f>
+        <v>1024</v>
+      </c>
+      <c r="G19">
+        <f>F19*4</f>
+        <v>4096</v>
+      </c>
+      <c r="H19">
+        <f>G19*4</f>
+        <v>16384</v>
+      </c>
+      <c r="I19">
+        <f>H19*4</f>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -9614,7 +9672,28 @@
         <v>8</v>
       </c>
       <c r="E20">
+        <f>D20*2</f>
         <v>16</v>
+      </c>
+      <c r="F20">
+        <f>E20*2</f>
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <f>F20*2</f>
+        <v>64</v>
+      </c>
+      <c r="H20">
+        <f>G20*2</f>
+        <v>128</v>
+      </c>
+      <c r="I20">
+        <f>H20*2</f>
+        <v>256</v>
+      </c>
+      <c r="J20">
+        <f>I20*2</f>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
